--- a/testData/sso_test_data.xlsx
+++ b/testData/sso_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
   <si>
     <t>用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,27 +115,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Linux普通账号和密码登录(putty)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux不代填用户名和密码登录(putty)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux不代填用户名和密码登录(secureCRT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco匿名登录(putty)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为telnet代填用户和密码(secureCRT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为ssh代填用户名和密码(secureCRT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super,system-view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号列表账号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>linux管理员账号和密码登录(secureCRT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linux普通账号和密码登录(putty)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>linux普通账号和密码登录(secureCRT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linux不代填用户名和密码登录(putty)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux不代填用户名和密码登录(secureCRT)</t>
+    <t>cisco不代填用户名和密码登录(putty)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cisco匿名登录(putty)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco不代填用户名和密码登录(putty)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cisco不代填用户名和密码登录(secureCRT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,7 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为telnet代填用户和密码(secureCRT)</t>
+    <t>super,system-view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,31 +195,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为ssh代填用户名和密码(secureCRT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en,show version,show running-config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>super,system-view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S09_T11_sso_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号列表账号3</t>
+    <t xml:space="preserve">test-F12-S29-001
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test-F12-S29-003
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-F12-S29-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-F12-S29-linux-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en,login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en,login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +650,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -642,16 +667,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -696,15 +721,15 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
@@ -726,15 +751,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -756,15 +781,15 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
@@ -786,75 +811,71 @@
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>41</v>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -864,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
@@ -876,15 +897,15 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -894,7 +915,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>23</v>
@@ -906,66 +927,70 @@
         <v>8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
+      <c r="A11" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -993,12 +1018,12 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1021,19 +1046,19 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -1049,12 +1074,12 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1077,19 +1102,19 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1105,12 +1130,12 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1133,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
